--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BD/10/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BD/10/seed5/result_data_RandomForest.xlsx
@@ -592,7 +592,7 @@
         <v>-10.8</v>
       </c>
       <c r="D11" t="n">
-        <v>-7.671699999999992</v>
+        <v>-7.852499999999989</v>
       </c>
     </row>
     <row r="12">
@@ -600,7 +600,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>4.9117</v>
+        <v>4.829399999999998</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -760,7 +760,7 @@
         <v>-12.89</v>
       </c>
       <c r="D23" t="n">
-        <v>-8.154000000000003</v>
+        <v>-8.003</v>
       </c>
     </row>
     <row r="24">
@@ -830,7 +830,7 @@
         <v>-11.8</v>
       </c>
       <c r="D28" t="n">
-        <v>-8.038899999999995</v>
+        <v>-8.357999999999997</v>
       </c>
     </row>
     <row r="29">
@@ -880,13 +880,13 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>6.653599999999998</v>
+        <v>6.4575</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
       </c>
       <c r="D32" t="n">
-        <v>-8.20619999999999</v>
+        <v>-8.511899999999986</v>
       </c>
     </row>
     <row r="33">
@@ -914,7 +914,7 @@
         <v>-11.49</v>
       </c>
       <c r="D34" t="n">
-        <v>-8.016900000000001</v>
+        <v>-8.096500000000002</v>
       </c>
     </row>
     <row r="35">
@@ -936,7 +936,7 @@
         <v>-18.53</v>
       </c>
       <c r="B36" t="n">
-        <v>9.222600000000003</v>
+        <v>9.188700000000004</v>
       </c>
       <c r="C36" t="n">
         <v>-10.09</v>
@@ -964,7 +964,7 @@
         <v>-21.37</v>
       </c>
       <c r="B38" t="n">
-        <v>4.940299999999997</v>
+        <v>4.864399999999998</v>
       </c>
       <c r="C38" t="n">
         <v>-12.46</v>
@@ -1026,7 +1026,7 @@
         <v>-13.45</v>
       </c>
       <c r="D42" t="n">
-        <v>-9.180699999999993</v>
+        <v>-9.101799999999992</v>
       </c>
     </row>
     <row r="43">
@@ -1076,7 +1076,7 @@
         <v>-22.54</v>
       </c>
       <c r="B46" t="n">
-        <v>5.950500000000004</v>
+        <v>5.769200000000003</v>
       </c>
       <c r="C46" t="n">
         <v>-11.47</v>
@@ -1188,13 +1188,13 @@
         <v>-22.23</v>
       </c>
       <c r="B54" t="n">
-        <v>4.870700000000001</v>
+        <v>4.882099999999999</v>
       </c>
       <c r="C54" t="n">
         <v>-13.87</v>
       </c>
       <c r="D54" t="n">
-        <v>-8.336099999999995</v>
+        <v>-8.350799999999994</v>
       </c>
     </row>
     <row r="55">
@@ -1202,7 +1202,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>6.102799999999998</v>
+        <v>6.046999999999998</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1370,7 +1370,7 @@
         <v>-21.67</v>
       </c>
       <c r="B67" t="n">
-        <v>5.369599999999996</v>
+        <v>5.309599999999993</v>
       </c>
       <c r="C67" t="n">
         <v>-10.67</v>
@@ -1398,7 +1398,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.438599999999995</v>
+        <v>5.304699999999996</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1440,7 +1440,7 @@
         <v>-21.62</v>
       </c>
       <c r="B72" t="n">
-        <v>5.118200000000007</v>
+        <v>5.196600000000003</v>
       </c>
       <c r="C72" t="n">
         <v>-11.2</v>
@@ -1706,7 +1706,7 @@
         <v>-21.82</v>
       </c>
       <c r="B91" t="n">
-        <v>5.220699999999997</v>
+        <v>5.149399999999998</v>
       </c>
       <c r="C91" t="n">
         <v>-12.06</v>
@@ -1796,7 +1796,7 @@
         <v>-10.47</v>
       </c>
       <c r="D97" t="n">
-        <v>-8.362499999999994</v>
+        <v>-8.48379999999999</v>
       </c>
     </row>
     <row r="98">
@@ -1818,13 +1818,13 @@
         <v>-21.32</v>
       </c>
       <c r="B99" t="n">
-        <v>4.799600000000002</v>
+        <v>4.626800000000004</v>
       </c>
       <c r="C99" t="n">
         <v>-13.93</v>
       </c>
       <c r="D99" t="n">
-        <v>-8.411900000000001</v>
+        <v>-8.644100000000003</v>
       </c>
     </row>
     <row r="100">
@@ -1852,7 +1852,7 @@
         <v>-15.77</v>
       </c>
       <c r="D101" t="n">
-        <v>-7.759599999999995</v>
+        <v>-7.785999999999999</v>
       </c>
     </row>
     <row r="102">
@@ -1888,7 +1888,7 @@
         <v>-19.85</v>
       </c>
       <c r="B104" t="n">
-        <v>9.831800000000001</v>
+        <v>9.832400000000003</v>
       </c>
       <c r="C104" t="n">
         <v>-11.07</v>
